--- a/src/main/resources/static/load/礼金列表.xlsx
+++ b/src/main/resources/static/load/礼金列表.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFD3902-F6BB-407F-8B2F-D01F00CDCE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>杨松</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,21 +660,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.875" style="3"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -684,7 +685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -698,7 +699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -712,7 +713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -726,7 +727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -740,7 +741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -754,7 +755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -768,7 +769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -782,7 +783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -796,7 +797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -810,7 +811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -824,7 +825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -838,7 +839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -852,7 +853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -866,7 +867,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -877,7 +878,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -888,7 +889,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -899,7 +900,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -910,7 +911,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -921,7 +922,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -932,7 +933,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -943,7 +944,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -954,7 +955,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -965,7 +966,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -976,7 +977,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -987,7 +988,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -998,7 +999,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1174,14 +1175,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -1201,16 +1202,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1238,10 +1239,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1252,10 +1256,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
@@ -1288,7 +1295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1344,10 +1351,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1355,10 +1365,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1366,7 +1379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1379,8 +1392,11 @@
       <c r="I14" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
@@ -1397,45 +1413,63 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
       <c r="I16" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
       <c r="G20" s="8" t="s">
         <v>40</v>
       </c>
@@ -1443,7 +1477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>60</v>
       </c>
@@ -1454,12 +1488,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G23" s="2" t="s">
         <v>53</v>
       </c>

--- a/src/main/resources/static/load/礼金列表.xlsx
+++ b/src/main/resources/static/load/礼金列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFD3902-F6BB-407F-8B2F-D01F00CDCE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A61E9-CB80-456E-852F-EB9118605F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
   <si>
     <t>杨松</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,30 @@
   </si>
   <si>
     <t>王丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢成勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何荣桦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王华强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何元庆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +405,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1206,13 +1234,13 @@
   <dimension ref="E2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -1235,6 +1263,9 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
       <c r="I3" t="s">
         <v>44</v>
       </c>
@@ -1266,7 +1297,7 @@
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1288,30 +1319,48 @@
       <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
@@ -1361,8 +1410,14 @@
       <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.2">
@@ -1375,8 +1430,14 @@
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
       <c r="I13" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.2">
@@ -1386,7 +1447,7 @@
       <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -1406,6 +1467,9 @@
       <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
       <c r="I15" s="7" t="s">
         <v>59</v>
       </c>
@@ -1423,12 +1487,12 @@
       <c r="H16" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E17" s="8" t="s">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1437,8 +1501,14 @@
       <c r="H17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1451,8 +1521,14 @@
       <c r="H18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1462,8 +1538,14 @@
       <c r="G19" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1476,8 +1558,14 @@
       <c r="H20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>60</v>
       </c>
@@ -1487,13 +1575,22 @@
       <c r="G21" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
       <c r="G22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
       <c r="G23" s="2" t="s">
         <v>53</v>
       </c>

--- a/src/main/resources/static/load/礼金列表.xlsx
+++ b/src/main/resources/static/load/礼金列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A61E9-CB80-456E-852F-EB9118605F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894B9BB2-4321-4D84-A22A-3E7D84A65B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
   <dimension ref="E2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/static/load/礼金列表.xlsx
+++ b/src/main/resources/static/load/礼金列表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894B9BB2-4321-4D84-A22A-3E7D84A65B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB0DED3-FD63-436C-A095-F9499FA0D522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="24030" windowHeight="13260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>杨松</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1234,7 +1234,7 @@
   <dimension ref="E2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1544,6 +1544,9 @@
       <c r="I19" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">

--- a/src/main/resources/static/load/礼金列表.xlsx
+++ b/src/main/resources/static/load/礼金列表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB0DED3-FD63-436C-A095-F9499FA0D522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209732A4-042D-4E0A-A58A-3B7912CF9784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="24030" windowHeight="13260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="24030" windowHeight="13260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
   <si>
     <t>杨松</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,14 @@
   </si>
   <si>
     <t>何元庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,10 +413,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1231,15 +1243,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E2:J23"/>
+  <dimension ref="E2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1249,14 +1261,14 @@
       <c r="H2" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1266,11 +1278,11 @@
       <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1280,14 +1292,14 @@
       <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1297,59 +1309,74 @@
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7">
+        <v>800</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1362,14 +1389,14 @@
       <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1379,11 +1406,11 @@
       <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1393,14 +1420,14 @@
       <c r="G11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1413,14 +1440,14 @@
       <c r="H12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>67</v>
       </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1433,14 +1460,14 @@
       <c r="H13" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1450,14 +1477,14 @@
       <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
@@ -1470,14 +1497,14 @@
       <c r="H15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1487,13 +1514,16 @@
       <c r="H16" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="9" t="s">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="11" t="s">
         <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>30</v>
@@ -1501,14 +1531,14 @@
       <c r="H17" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1521,14 +1551,17 @@
       <c r="H18" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18">
+        <v>400</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1541,14 +1574,14 @@
       <c r="H19" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1561,14 +1594,14 @@
       <c r="H20" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>60</v>
       </c>
@@ -1581,19 +1614,25 @@
       <c r="H21" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
       <c r="G22" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
       <c r="G23" s="2" t="s">
         <v>53</v>
       </c>

--- a/src/main/resources/static/load/礼金列表.xlsx
+++ b/src/main/resources/static/load/礼金列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209732A4-042D-4E0A-A58A-3B7912CF9784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4AB21-56E9-4B4F-BD75-9E1F0B63342C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="24030" windowHeight="13260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>杨松</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1246,7 +1246,7 @@
   <dimension ref="E2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1631,6 +1631,9 @@
       <c r="J22" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="K22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.2">
       <c r="G23" s="2" t="s">

--- a/src/main/resources/static/load/礼金列表.xlsx
+++ b/src/main/resources/static/load/礼金列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4AB21-56E9-4B4F-BD75-9E1F0B63342C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9AF0D4-72A7-4028-9B9F-CAFDD1A37B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="24030" windowHeight="13260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
   <si>
     <t>杨松</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1243,15 +1243,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E2:K23"/>
+  <dimension ref="D2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1268,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1285,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>2</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1305,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>3</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1315,8 +1324,14 @@
       <c r="J5" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>4</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1348,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>5</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
@@ -1356,7 +1374,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>6</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1397,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>7</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1420,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>8</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1409,8 +1436,14 @@
       <c r="J10" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>9</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +1460,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>10</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1483,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>11</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1506,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>12</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1484,7 +1526,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>13</v>
+      </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1549,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>14</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1517,8 +1565,14 @@
       <c r="J16" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>15</v>
+      </c>
       <c r="E17" s="11" t="s">
         <v>14</v>
       </c>
@@ -1538,7 +1592,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>16</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1561,7 +1618,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>17</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1641,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>18</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1601,7 +1664,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>19</v>
+      </c>
       <c r="E21" t="s">
         <v>60</v>
       </c>
@@ -1621,7 +1687,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>20</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1635,9 +1704,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>21</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/load/礼金列表.xlsx
+++ b/src/main/resources/static/load/礼金列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9AF0D4-72A7-4028-9B9F-CAFDD1A37B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ED2550-68DA-48A0-BA4B-2D94478329BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="24030" windowHeight="13260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
   <si>
     <t>杨松</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,14 @@
   </si>
   <si>
     <t>覃建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +423,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,49 +1251,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D2:K23"/>
+  <dimension ref="D1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>58</v>
       </c>
       <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>2</v>
       </c>
@@ -1295,17 +1314,20 @@
       <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>3</v>
       </c>
@@ -1315,20 +1337,20 @@
       <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>4</v>
       </c>
@@ -1338,17 +1360,20 @@
       <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>5</v>
       </c>
@@ -1358,23 +1383,26 @@
       <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7">
         <v>800</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>6</v>
       </c>
@@ -1384,20 +1412,20 @@
       <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>7</v>
       </c>
@@ -1407,40 +1435,43 @@
       <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
         <v>50</v>
       </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>9</v>
       </c>
@@ -1450,17 +1481,17 @@
       <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>10</v>
       </c>
@@ -1470,20 +1501,26 @@
       <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>58</v>
       </c>
       <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
         <v>67</v>
       </c>
-      <c r="K12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>11</v>
       </c>
@@ -1493,20 +1530,23 @@
       <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>12</v>
       </c>
@@ -1516,17 +1556,17 @@
       <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>13</v>
       </c>
@@ -1536,63 +1576,72 @@
       <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>15</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>16</v>
       </c>
@@ -1602,23 +1651,26 @@
       <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18">
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18">
         <v>400</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>17</v>
       </c>
@@ -1628,20 +1680,26 @@
       <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>18</v>
       </c>
@@ -1651,20 +1709,23 @@
       <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>19</v>
       </c>
@@ -1674,44 +1735,44 @@
       <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>20</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>21</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>58</v>
       </c>
     </row>
